--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R210_SWT_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R210_SWT_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1760" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3520" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -535,10 +547,10 @@
       <c r="I14">
         <f>((C14-C13)^2+(D14- D13)^2)^.5</f>
       </c>
-      <c r="J14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K14" s="2" t="s">
+      <c r="J14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K14" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L14" t="n">
@@ -582,28 +594,28 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s" s="2">
+      <c r="A16" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B16" t="s" s="2">
+      <c r="B16" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C16" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D16" t="s" s="2">
+      <c r="C16" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E16" t="s" s="2">
+      <c r="E16" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F16" t="s" s="2">
+      <c r="F16" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G16" t="s" s="2">
+      <c r="G16" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H16" t="s" s="2">
+      <c r="H16" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -628,28 +640,28 @@
       </c>
     </row>
     <row r="18">
-      <c r="B18" t="s" s="2">
+      <c r="B18" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C18" t="s" s="2">
+      <c r="C18" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D18" t="s" s="2">
+      <c r="D18" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E18" t="s" s="2">
+      <c r="E18" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F18" t="s" s="2">
+      <c r="F18" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G18" t="s" s="2">
+      <c r="G18" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H18" t="s" s="2">
+      <c r="H18" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I18" t="s" s="2">
+      <c r="I18" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -708,10 +720,10 @@
       <c r="I20">
         <f>((C20-C19)^2+(D20- D19)^2)^.5</f>
       </c>
-      <c r="J20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K20" s="2" t="s">
+      <c r="J20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L20" t="n">
@@ -755,28 +767,28 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="2">
+      <c r="A22" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B22" t="s" s="2">
+      <c r="B22" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C22" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D22" t="s" s="2">
+      <c r="C22" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D22" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E22" t="s" s="2">
+      <c r="E22" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F22" t="s" s="2">
+      <c r="F22" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G22" t="s" s="2">
+      <c r="G22" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H22" t="s" s="2">
+      <c r="H22" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -801,28 +813,28 @@
       </c>
     </row>
     <row r="24">
-      <c r="B24" t="s" s="2">
+      <c r="B24" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C24" t="s" s="2">
+      <c r="C24" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D24" t="s" s="2">
+      <c r="D24" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E24" t="s" s="2">
+      <c r="E24" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F24" t="s" s="2">
+      <c r="F24" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G24" t="s" s="2">
+      <c r="G24" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H24" t="s" s="2">
+      <c r="H24" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I24" t="s" s="2">
+      <c r="I24" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -881,10 +893,10 @@
       <c r="I26">
         <f>((C26-C25)^2+(D26- D25)^2)^.5</f>
       </c>
-      <c r="J26" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K26" s="2" t="s">
+      <c r="J26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K26" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L26" t="n">
@@ -928,28 +940,28 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s" s="2">
+      <c r="A28" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B28" t="s" s="2">
+      <c r="B28" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C28" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D28" t="s" s="2">
+      <c r="C28" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D28" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E28" t="s" s="2">
+      <c r="E28" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F28" t="s" s="2">
+      <c r="F28" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G28" t="s" s="2">
+      <c r="G28" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H28" t="s" s="2">
+      <c r="H28" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -974,28 +986,28 @@
       </c>
     </row>
     <row r="30">
-      <c r="B30" t="s" s="2">
+      <c r="B30" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C30" t="s" s="2">
+      <c r="C30" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D30" t="s" s="2">
+      <c r="D30" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E30" t="s" s="2">
+      <c r="E30" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F30" t="s" s="2">
+      <c r="F30" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G30" t="s" s="2">
+      <c r="G30" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H30" t="s" s="2">
+      <c r="H30" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I30" t="s" s="2">
+      <c r="I30" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1054,10 +1066,10 @@
       <c r="I32">
         <f>((C32-C31)^2+(D32- D31)^2)^.5</f>
       </c>
-      <c r="J32" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K32" s="2" t="s">
+      <c r="J32" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K32" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L32" t="n">
@@ -1101,28 +1113,28 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="s" s="2">
+      <c r="A34" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B34" t="s" s="2">
+      <c r="B34" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C34" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D34" t="s" s="2">
+      <c r="C34" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D34" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E34" t="s" s="2">
+      <c r="E34" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F34" t="s" s="2">
+      <c r="F34" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G34" t="s" s="2">
+      <c r="G34" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H34" t="s" s="2">
+      <c r="H34" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1147,28 +1159,28 @@
       </c>
     </row>
     <row r="36">
-      <c r="B36" t="s" s="2">
+      <c r="B36" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C36" t="s" s="2">
+      <c r="C36" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D36" t="s" s="2">
+      <c r="D36" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E36" t="s" s="2">
+      <c r="E36" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F36" t="s" s="2">
+      <c r="F36" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G36" t="s" s="2">
+      <c r="G36" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H36" t="s" s="2">
+      <c r="H36" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I36" t="s" s="2">
+      <c r="I36" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1227,10 +1239,10 @@
       <c r="I38">
         <f>((C38-C37)^2+(D38- D37)^2)^.5</f>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K38" s="2" t="s">
+      <c r="J38" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K38" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L38" t="n">
@@ -1274,28 +1286,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="s" s="2">
+      <c r="A40" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B40" t="s" s="2">
+      <c r="B40" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C40" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D40" t="s" s="2">
+      <c r="C40" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D40" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E40" t="s" s="2">
+      <c r="E40" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F40" t="s" s="2">
+      <c r="F40" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G40" t="s" s="2">
+      <c r="G40" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H40" t="s" s="2">
+      <c r="H40" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1320,28 +1332,28 @@
       </c>
     </row>
     <row r="42">
-      <c r="B42" t="s" s="2">
+      <c r="B42" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C42" t="s" s="2">
+      <c r="C42" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D42" t="s" s="2">
+      <c r="D42" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E42" t="s" s="2">
+      <c r="E42" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F42" t="s" s="2">
+      <c r="F42" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G42" t="s" s="2">
+      <c r="G42" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H42" t="s" s="2">
+      <c r="H42" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I42" t="s" s="2">
+      <c r="I42" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1400,10 +1412,10 @@
       <c r="I44">
         <f>((C44-C43)^2+(D44- D43)^2)^.5</f>
       </c>
-      <c r="J44" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K44" s="2" t="s">
+      <c r="J44" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K44" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L44" t="n">
@@ -1447,28 +1459,28 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="s" s="2">
+      <c r="A46" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B46" t="s" s="2">
+      <c r="B46" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C46" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D46" t="s" s="2">
+      <c r="C46" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D46" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E46" t="s" s="2">
+      <c r="E46" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F46" t="s" s="2">
+      <c r="F46" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G46" t="s" s="2">
+      <c r="G46" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H46" t="s" s="2">
+      <c r="H46" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1493,28 +1505,28 @@
       </c>
     </row>
     <row r="48">
-      <c r="B48" t="s" s="2">
+      <c r="B48" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C48" t="s" s="2">
+      <c r="C48" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D48" t="s" s="2">
+      <c r="D48" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E48" t="s" s="2">
+      <c r="E48" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F48" t="s" s="2">
+      <c r="F48" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G48" t="s" s="2">
+      <c r="G48" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H48" t="s" s="2">
+      <c r="H48" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I48" t="s" s="2">
+      <c r="I48" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1573,10 +1585,10 @@
       <c r="I50">
         <f>((C50-C49)^2+(D50- D49)^2)^.5</f>
       </c>
-      <c r="J50" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K50" s="2" t="s">
+      <c r="J50" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K50" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L50" t="n">
@@ -1620,28 +1632,28 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="s" s="2">
+      <c r="A52" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B52" t="s" s="2">
+      <c r="B52" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C52" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D52" t="s" s="2">
+      <c r="C52" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D52" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E52" t="s" s="2">
+      <c r="E52" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F52" t="s" s="2">
+      <c r="F52" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G52" t="s" s="2">
+      <c r="G52" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H52" t="s" s="2">
+      <c r="H52" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1666,28 +1678,28 @@
       </c>
     </row>
     <row r="54">
-      <c r="B54" t="s" s="2">
+      <c r="B54" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C54" t="s" s="2">
+      <c r="C54" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D54" t="s" s="2">
+      <c r="D54" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E54" t="s" s="2">
+      <c r="E54" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F54" t="s" s="2">
+      <c r="F54" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G54" t="s" s="2">
+      <c r="G54" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H54" t="s" s="2">
+      <c r="H54" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I54" t="s" s="2">
+      <c r="I54" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1746,10 +1758,10 @@
       <c r="I56">
         <f>((C56-C55)^2+(D56- D55)^2)^.5</f>
       </c>
-      <c r="J56" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K56" s="2" t="s">
+      <c r="J56" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K56" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L56" t="n">
@@ -1793,28 +1805,28 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="s" s="2">
+      <c r="A58" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B58" t="s" s="2">
+      <c r="B58" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C58" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D58" t="s" s="2">
+      <c r="C58" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D58" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E58" t="s" s="2">
+      <c r="E58" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F58" t="s" s="2">
+      <c r="F58" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G58" t="s" s="2">
+      <c r="G58" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H58" t="s" s="2">
+      <c r="H58" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1839,28 +1851,28 @@
       </c>
     </row>
     <row r="60">
-      <c r="B60" t="s" s="2">
+      <c r="B60" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C60" t="s" s="2">
+      <c r="C60" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D60" t="s" s="2">
+      <c r="D60" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E60" t="s" s="2">
+      <c r="E60" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F60" t="s" s="2">
+      <c r="F60" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G60" t="s" s="2">
+      <c r="G60" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H60" t="s" s="2">
+      <c r="H60" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I60" t="s" s="2">
+      <c r="I60" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1919,10 +1931,10 @@
       <c r="I62">
         <f>((C62-C61)^2+(D62- D61)^2)^.5</f>
       </c>
-      <c r="J62" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K62" s="2" t="s">
+      <c r="J62" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K62" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L62" t="n">
@@ -1966,28 +1978,28 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="s" s="2">
+      <c r="A64" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B64" t="s" s="2">
+      <c r="B64" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C64" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D64" t="s" s="2">
+      <c r="C64" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D64" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E64" t="s" s="2">
+      <c r="E64" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F64" t="s" s="2">
+      <c r="F64" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G64" t="s" s="2">
+      <c r="G64" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H64" t="s" s="2">
+      <c r="H64" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2012,28 +2024,28 @@
       </c>
     </row>
     <row r="66">
-      <c r="B66" t="s" s="2">
+      <c r="B66" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C66" t="s" s="2">
+      <c r="C66" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D66" t="s" s="2">
+      <c r="D66" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E66" t="s" s="2">
+      <c r="E66" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F66" t="s" s="2">
+      <c r="F66" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G66" t="s" s="2">
+      <c r="G66" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H66" t="s" s="2">
+      <c r="H66" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I66" t="s" s="2">
+      <c r="I66" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2092,10 +2104,10 @@
       <c r="I68">
         <f>((C68-C67)^2+(D68- D67)^2)^.5</f>
       </c>
-      <c r="J68" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K68" s="2" t="s">
+      <c r="J68" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K68" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L68" t="n">
@@ -2139,28 +2151,28 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="s" s="2">
+      <c r="A70" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B70" t="s" s="2">
+      <c r="B70" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C70" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D70" t="s" s="2">
+      <c r="C70" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D70" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E70" t="s" s="2">
+      <c r="E70" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F70" t="s" s="2">
+      <c r="F70" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G70" t="s" s="2">
+      <c r="G70" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H70" t="s" s="2">
+      <c r="H70" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2185,28 +2197,28 @@
       </c>
     </row>
     <row r="72">
-      <c r="B72" t="s" s="2">
+      <c r="B72" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C72" t="s" s="2">
+      <c r="C72" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D72" t="s" s="2">
+      <c r="D72" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E72" t="s" s="2">
+      <c r="E72" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F72" t="s" s="2">
+      <c r="F72" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G72" t="s" s="2">
+      <c r="G72" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H72" t="s" s="2">
+      <c r="H72" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I72" t="s" s="2">
+      <c r="I72" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2265,10 +2277,10 @@
       <c r="I74">
         <f>((C74-C73)^2+(D74- D73)^2)^.5</f>
       </c>
-      <c r="J74" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K74" s="2" t="s">
+      <c r="J74" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K74" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L74" t="n">
@@ -2312,28 +2324,28 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="s" s="2">
+      <c r="A76" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B76" t="s" s="2">
+      <c r="B76" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C76" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D76" t="s" s="2">
+      <c r="C76" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D76" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E76" t="s" s="2">
+      <c r="E76" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F76" t="s" s="2">
+      <c r="F76" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G76" t="s" s="2">
+      <c r="G76" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H76" t="s" s="2">
+      <c r="H76" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2358,28 +2370,28 @@
       </c>
     </row>
     <row r="78">
-      <c r="B78" t="s" s="2">
+      <c r="B78" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C78" t="s" s="2">
+      <c r="C78" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D78" t="s" s="2">
+      <c r="D78" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E78" t="s" s="2">
+      <c r="E78" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F78" t="s" s="2">
+      <c r="F78" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G78" t="s" s="2">
+      <c r="G78" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H78" t="s" s="2">
+      <c r="H78" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I78" t="s" s="2">
+      <c r="I78" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2438,10 +2450,10 @@
       <c r="I80">
         <f>((C80-C79)^2+(D80- D79)^2)^.5</f>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K80" s="2" t="s">
+      <c r="J80" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K80" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L80" t="n">
@@ -2485,28 +2497,28 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="s" s="2">
+      <c r="A82" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B82" t="s" s="2">
+      <c r="B82" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C82" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D82" t="s" s="2">
+      <c r="C82" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D82" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E82" t="s" s="2">
+      <c r="E82" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F82" t="s" s="2">
+      <c r="F82" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G82" t="s" s="2">
+      <c r="G82" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H82" t="s" s="2">
+      <c r="H82" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2531,28 +2543,28 @@
       </c>
     </row>
     <row r="84">
-      <c r="B84" t="s" s="2">
+      <c r="B84" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C84" t="s" s="2">
+      <c r="C84" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D84" t="s" s="2">
+      <c r="D84" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E84" t="s" s="2">
+      <c r="E84" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F84" t="s" s="2">
+      <c r="F84" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G84" t="s" s="2">
+      <c r="G84" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H84" t="s" s="2">
+      <c r="H84" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I84" t="s" s="2">
+      <c r="I84" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2611,10 +2623,10 @@
       <c r="I86">
         <f>((C86-C85)^2+(D86- D85)^2)^.5</f>
       </c>
-      <c r="J86" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K86" s="2" t="s">
+      <c r="J86" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K86" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L86" t="n">
@@ -2658,28 +2670,28 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="s" s="2">
+      <c r="A88" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B88" t="s" s="2">
+      <c r="B88" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C88" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D88" t="s" s="2">
+      <c r="C88" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D88" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E88" t="s" s="2">
+      <c r="E88" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F88" t="s" s="2">
+      <c r="F88" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G88" t="s" s="2">
+      <c r="G88" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H88" t="s" s="2">
+      <c r="H88" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2704,28 +2716,28 @@
       </c>
     </row>
     <row r="90">
-      <c r="B90" t="s" s="2">
+      <c r="B90" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C90" t="s" s="2">
+      <c r="C90" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D90" t="s" s="2">
+      <c r="D90" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E90" t="s" s="2">
+      <c r="E90" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F90" t="s" s="2">
+      <c r="F90" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G90" t="s" s="2">
+      <c r="G90" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H90" t="s" s="2">
+      <c r="H90" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I90" t="s" s="2">
+      <c r="I90" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2784,10 +2796,10 @@
       <c r="I92">
         <f>((C92-C91)^2+(D92- D91)^2)^.5</f>
       </c>
-      <c r="J92" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K92" s="2" t="s">
+      <c r="J92" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K92" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L92" t="n">
@@ -2831,28 +2843,28 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="s" s="2">
+      <c r="A94" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B94" t="s" s="2">
+      <c r="B94" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C94" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D94" t="s" s="2">
+      <c r="C94" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D94" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E94" t="s" s="2">
+      <c r="E94" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F94" t="s" s="2">
+      <c r="F94" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G94" t="s" s="2">
+      <c r="G94" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H94" t="s" s="2">
+      <c r="H94" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2877,28 +2889,28 @@
       </c>
     </row>
     <row r="96">
-      <c r="B96" t="s" s="2">
+      <c r="B96" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C96" t="s" s="2">
+      <c r="C96" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D96" t="s" s="2">
+      <c r="D96" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E96" t="s" s="2">
+      <c r="E96" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F96" t="s" s="2">
+      <c r="F96" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G96" t="s" s="2">
+      <c r="G96" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H96" t="s" s="2">
+      <c r="H96" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I96" t="s" s="2">
+      <c r="I96" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2957,10 +2969,10 @@
       <c r="I98">
         <f>((C98-C97)^2+(D98- D97)^2)^.5</f>
       </c>
-      <c r="J98" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K98" s="2" t="s">
+      <c r="J98" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K98" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L98" t="n">
@@ -3004,28 +3016,28 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="s" s="2">
+      <c r="A100" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B100" t="s" s="2">
+      <c r="B100" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C100" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D100" t="s" s="2">
+      <c r="C100" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D100" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E100" t="s" s="2">
+      <c r="E100" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F100" t="s" s="2">
+      <c r="F100" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G100" t="s" s="2">
+      <c r="G100" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H100" t="s" s="2">
+      <c r="H100" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3050,28 +3062,28 @@
       </c>
     </row>
     <row r="102">
-      <c r="B102" t="s" s="2">
+      <c r="B102" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C102" t="s" s="2">
+      <c r="C102" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D102" t="s" s="2">
+      <c r="D102" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E102" t="s" s="2">
+      <c r="E102" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F102" t="s" s="2">
+      <c r="F102" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G102" t="s" s="2">
+      <c r="G102" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H102" t="s" s="2">
+      <c r="H102" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I102" t="s" s="2">
+      <c r="I102" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3826,10 +3838,10 @@
       <c r="I128">
         <f>((C128-C127)^2+(D128- D127)^2)^.5</f>
       </c>
-      <c r="J128" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K128" s="2" t="s">
+      <c r="J128" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K128" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L128" t="n">
@@ -3873,28 +3885,28 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="s" s="2">
+      <c r="A130" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B130" t="s" s="2">
+      <c r="B130" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C130" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D130" t="s" s="2">
+      <c r="C130" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D130" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E130" t="s" s="2">
+      <c r="E130" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F130" t="s" s="2">
+      <c r="F130" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G130" t="s" s="2">
+      <c r="G130" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H130" t="s" s="2">
+      <c r="H130" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3919,28 +3931,28 @@
       </c>
     </row>
     <row r="132">
-      <c r="B132" t="s" s="2">
+      <c r="B132" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C132" t="s" s="2">
+      <c r="C132" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D132" t="s" s="2">
+      <c r="D132" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E132" t="s" s="2">
+      <c r="E132" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F132" t="s" s="2">
+      <c r="F132" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G132" t="s" s="2">
+      <c r="G132" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H132" t="s" s="2">
+      <c r="H132" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I132" t="s" s="2">
+      <c r="I132" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4608,10 +4620,10 @@
       <c r="I155">
         <f>((C155-C154)^2+(D155- D154)^2)^.5</f>
       </c>
-      <c r="J155" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K155" s="2" t="s">
+      <c r="J155" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K155" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L155" t="n">
@@ -4655,28 +4667,28 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="s" s="2">
+      <c r="A157" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B157" t="s" s="2">
+      <c r="B157" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C157" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D157" t="s" s="2">
+      <c r="C157" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D157" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E157" t="s" s="2">
+      <c r="E157" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F157" t="s" s="2">
+      <c r="F157" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G157" t="s" s="2">
+      <c r="G157" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H157" t="s" s="2">
+      <c r="H157" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4701,28 +4713,28 @@
       </c>
     </row>
     <row r="159">
-      <c r="B159" t="s" s="2">
+      <c r="B159" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C159" t="s" s="2">
+      <c r="C159" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D159" t="s" s="2">
+      <c r="D159" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E159" t="s" s="2">
+      <c r="E159" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F159" t="s" s="2">
+      <c r="F159" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G159" t="s" s="2">
+      <c r="G159" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H159" t="s" s="2">
+      <c r="H159" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I159" t="s" s="2">
+      <c r="I159" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4781,10 +4793,10 @@
       <c r="I161">
         <f>((C161-C160)^2+(D161- D160)^2)^.5</f>
       </c>
-      <c r="J161" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K161" s="2" t="s">
+      <c r="J161" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K161" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L161" t="n">
@@ -4828,28 +4840,28 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="s" s="2">
+      <c r="A163" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B163" t="s" s="2">
+      <c r="B163" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C163" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D163" t="s" s="2">
+      <c r="C163" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D163" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E163" t="s" s="2">
+      <c r="E163" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F163" t="s" s="2">
+      <c r="F163" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G163" t="s" s="2">
+      <c r="G163" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H163" t="s" s="2">
+      <c r="H163" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4874,28 +4886,28 @@
       </c>
     </row>
     <row r="165">
-      <c r="B165" t="s" s="2">
+      <c r="B165" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C165" t="s" s="2">
+      <c r="C165" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D165" t="s" s="2">
+      <c r="D165" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E165" t="s" s="2">
+      <c r="E165" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F165" t="s" s="2">
+      <c r="F165" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G165" t="s" s="2">
+      <c r="G165" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H165" t="s" s="2">
+      <c r="H165" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I165" t="s" s="2">
+      <c r="I165" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4954,10 +4966,10 @@
       <c r="I167">
         <f>((C167-C166)^2+(D167- D166)^2)^.5</f>
       </c>
-      <c r="J167" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K167" s="2" t="s">
+      <c r="J167" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K167" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L167" t="n">
@@ -5001,28 +5013,28 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="s" s="2">
+      <c r="A169" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B169" t="s" s="2">
+      <c r="B169" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C169" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D169" t="s" s="2">
+      <c r="C169" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D169" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E169" t="s" s="2">
+      <c r="E169" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F169" t="s" s="2">
+      <c r="F169" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G169" t="s" s="2">
+      <c r="G169" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H169" t="s" s="2">
+      <c r="H169" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5047,28 +5059,28 @@
       </c>
     </row>
     <row r="171">
-      <c r="B171" t="s" s="2">
+      <c r="B171" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C171" t="s" s="2">
+      <c r="C171" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D171" t="s" s="2">
+      <c r="D171" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E171" t="s" s="2">
+      <c r="E171" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F171" t="s" s="2">
+      <c r="F171" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G171" t="s" s="2">
+      <c r="G171" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H171" t="s" s="2">
+      <c r="H171" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I171" t="s" s="2">
+      <c r="I171" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5127,10 +5139,10 @@
       <c r="I173">
         <f>((C173-C172)^2+(D173- D172)^2)^.5</f>
       </c>
-      <c r="J173" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K173" s="2" t="s">
+      <c r="J173" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K173" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L173" t="n">
@@ -5174,28 +5186,28 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="s" s="2">
+      <c r="A175" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B175" t="s" s="2">
+      <c r="B175" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C175" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D175" t="s" s="2">
+      <c r="C175" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D175" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E175" t="s" s="2">
+      <c r="E175" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F175" t="s" s="2">
+      <c r="F175" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G175" t="s" s="2">
+      <c r="G175" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H175" t="s" s="2">
+      <c r="H175" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5220,28 +5232,28 @@
       </c>
     </row>
     <row r="177">
-      <c r="B177" t="s" s="2">
+      <c r="B177" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C177" t="s" s="2">
+      <c r="C177" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D177" t="s" s="2">
+      <c r="D177" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E177" t="s" s="2">
+      <c r="E177" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F177" t="s" s="2">
+      <c r="F177" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G177" t="s" s="2">
+      <c r="G177" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H177" t="s" s="2">
+      <c r="H177" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I177" t="s" s="2">
+      <c r="I177" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5300,10 +5312,10 @@
       <c r="I179">
         <f>((C179-C178)^2+(D179- D178)^2)^.5</f>
       </c>
-      <c r="J179" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K179" s="2" t="s">
+      <c r="J179" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K179" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L179" t="n">
@@ -5347,28 +5359,28 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="s" s="2">
+      <c r="A181" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B181" t="s" s="2">
+      <c r="B181" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C181" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D181" t="s" s="2">
+      <c r="C181" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D181" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E181" t="s" s="2">
+      <c r="E181" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F181" t="s" s="2">
+      <c r="F181" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G181" t="s" s="2">
+      <c r="G181" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H181" t="s" s="2">
+      <c r="H181" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5393,28 +5405,28 @@
       </c>
     </row>
     <row r="183">
-      <c r="B183" t="s" s="2">
+      <c r="B183" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C183" t="s" s="2">
+      <c r="C183" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D183" t="s" s="2">
+      <c r="D183" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E183" t="s" s="2">
+      <c r="E183" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F183" t="s" s="2">
+      <c r="F183" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G183" t="s" s="2">
+      <c r="G183" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H183" t="s" s="2">
+      <c r="H183" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I183" t="s" s="2">
+      <c r="I183" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5473,10 +5485,10 @@
       <c r="I185">
         <f>((C185-C184)^2+(D185- D184)^2)^.5</f>
       </c>
-      <c r="J185" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K185" s="2" t="s">
+      <c r="J185" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K185" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L185" t="n">
@@ -5520,28 +5532,28 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="s" s="2">
+      <c r="A187" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B187" t="s" s="2">
+      <c r="B187" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C187" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D187" t="s" s="2">
+      <c r="C187" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D187" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E187" t="s" s="2">
+      <c r="E187" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F187" t="s" s="2">
+      <c r="F187" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G187" t="s" s="2">
+      <c r="G187" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H187" t="s" s="2">
+      <c r="H187" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5566,28 +5578,28 @@
       </c>
     </row>
     <row r="189">
-      <c r="B189" t="s" s="2">
+      <c r="B189" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C189" t="s" s="2">
+      <c r="C189" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D189" t="s" s="2">
+      <c r="D189" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E189" t="s" s="2">
+      <c r="E189" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F189" t="s" s="2">
+      <c r="F189" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G189" t="s" s="2">
+      <c r="G189" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H189" t="s" s="2">
+      <c r="H189" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I189" t="s" s="2">
+      <c r="I189" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5646,10 +5658,10 @@
       <c r="I191">
         <f>((C191-C190)^2+(D191- D190)^2)^.5</f>
       </c>
-      <c r="J191" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K191" s="2" t="s">
+      <c r="J191" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K191" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L191" t="n">
@@ -5693,28 +5705,28 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" t="s" s="2">
+      <c r="A193" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B193" t="s" s="2">
+      <c r="B193" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C193" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D193" t="s" s="2">
+      <c r="C193" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D193" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E193" t="s" s="2">
+      <c r="E193" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F193" t="s" s="2">
+      <c r="F193" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G193" t="s" s="2">
+      <c r="G193" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H193" t="s" s="2">
+      <c r="H193" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5739,28 +5751,28 @@
       </c>
     </row>
     <row r="195">
-      <c r="B195" t="s" s="2">
+      <c r="B195" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C195" t="s" s="2">
+      <c r="C195" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D195" t="s" s="2">
+      <c r="D195" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E195" t="s" s="2">
+      <c r="E195" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F195" t="s" s="2">
+      <c r="F195" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G195" t="s" s="2">
+      <c r="G195" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H195" t="s" s="2">
+      <c r="H195" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I195" t="s" s="2">
+      <c r="I195" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5819,10 +5831,10 @@
       <c r="I197">
         <f>((C197-C196)^2+(D197- D196)^2)^.5</f>
       </c>
-      <c r="J197" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K197" s="2" t="s">
+      <c r="J197" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K197" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L197" t="n">
@@ -5866,28 +5878,28 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="s" s="2">
+      <c r="A199" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B199" t="s" s="2">
+      <c r="B199" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C199" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D199" t="s" s="2">
+      <c r="C199" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D199" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E199" t="s" s="2">
+      <c r="E199" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F199" t="s" s="2">
+      <c r="F199" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G199" t="s" s="2">
+      <c r="G199" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H199" t="s" s="2">
+      <c r="H199" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5912,28 +5924,28 @@
       </c>
     </row>
     <row r="201">
-      <c r="B201" t="s" s="2">
+      <c r="B201" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C201" t="s" s="2">
+      <c r="C201" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D201" t="s" s="2">
+      <c r="D201" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E201" t="s" s="2">
+      <c r="E201" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F201" t="s" s="2">
+      <c r="F201" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G201" t="s" s="2">
+      <c r="G201" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H201" t="s" s="2">
+      <c r="H201" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I201" t="s" s="2">
+      <c r="I201" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5992,10 +6004,10 @@
       <c r="I203">
         <f>((C203-C202)^2+(D203- D202)^2)^.5</f>
       </c>
-      <c r="J203" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K203" s="2" t="s">
+      <c r="J203" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K203" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L203" t="n">
@@ -6039,28 +6051,28 @@
       </c>
     </row>
     <row r="205">
-      <c r="A205" t="s" s="2">
+      <c r="A205" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B205" t="s" s="2">
+      <c r="B205" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C205" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D205" t="s" s="2">
+      <c r="C205" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D205" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E205" t="s" s="2">
+      <c r="E205" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F205" t="s" s="2">
+      <c r="F205" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G205" t="s" s="2">
+      <c r="G205" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H205" t="s" s="2">
+      <c r="H205" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6085,28 +6097,28 @@
       </c>
     </row>
     <row r="207">
-      <c r="B207" t="s" s="2">
+      <c r="B207" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C207" t="s" s="2">
+      <c r="C207" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D207" t="s" s="2">
+      <c r="D207" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E207" t="s" s="2">
+      <c r="E207" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F207" t="s" s="2">
+      <c r="F207" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G207" t="s" s="2">
+      <c r="G207" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H207" t="s" s="2">
+      <c r="H207" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I207" t="s" s="2">
+      <c r="I207" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6165,10 +6177,10 @@
       <c r="I209">
         <f>((C209-C208)^2+(D209- D208)^2)^.5</f>
       </c>
-      <c r="J209" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K209" s="2" t="s">
+      <c r="J209" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K209" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L209" t="n">
@@ -6212,28 +6224,28 @@
       </c>
     </row>
     <row r="211">
-      <c r="A211" t="s" s="2">
+      <c r="A211" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B211" t="s" s="2">
+      <c r="B211" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C211" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D211" t="s" s="2">
+      <c r="C211" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D211" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E211" t="s" s="2">
+      <c r="E211" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F211" t="s" s="2">
+      <c r="F211" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G211" t="s" s="2">
+      <c r="G211" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H211" t="s" s="2">
+      <c r="H211" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6258,28 +6270,28 @@
       </c>
     </row>
     <row r="213">
-      <c r="B213" t="s" s="2">
+      <c r="B213" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C213" t="s" s="2">
+      <c r="C213" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D213" t="s" s="2">
+      <c r="D213" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E213" t="s" s="2">
+      <c r="E213" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F213" t="s" s="2">
+      <c r="F213" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G213" t="s" s="2">
+      <c r="G213" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H213" t="s" s="2">
+      <c r="H213" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I213" t="s" s="2">
+      <c r="I213" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6338,10 +6350,10 @@
       <c r="I215">
         <f>((C215-C214)^2+(D215- D214)^2)^.5</f>
       </c>
-      <c r="J215" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K215" s="2" t="s">
+      <c r="J215" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K215" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L215" t="n">
@@ -6385,28 +6397,28 @@
       </c>
     </row>
     <row r="217">
-      <c r="A217" t="s" s="2">
+      <c r="A217" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B217" t="s" s="2">
+      <c r="B217" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C217" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D217" t="s" s="2">
+      <c r="C217" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D217" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E217" t="s" s="2">
+      <c r="E217" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F217" t="s" s="2">
+      <c r="F217" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G217" t="s" s="2">
+      <c r="G217" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H217" t="s" s="2">
+      <c r="H217" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6431,28 +6443,28 @@
       </c>
     </row>
     <row r="219">
-      <c r="B219" t="s" s="2">
+      <c r="B219" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C219" t="s" s="2">
+      <c r="C219" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D219" t="s" s="2">
+      <c r="D219" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E219" t="s" s="2">
+      <c r="E219" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F219" t="s" s="2">
+      <c r="F219" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G219" t="s" s="2">
+      <c r="G219" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H219" t="s" s="2">
+      <c r="H219" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I219" t="s" s="2">
+      <c r="I219" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6511,10 +6523,10 @@
       <c r="I221">
         <f>((C221-C220)^2+(D221- D220)^2)^.5</f>
       </c>
-      <c r="J221" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K221" s="2" t="s">
+      <c r="J221" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K221" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L221" t="n">
@@ -6558,28 +6570,28 @@
       </c>
     </row>
     <row r="223">
-      <c r="A223" t="s" s="2">
+      <c r="A223" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B223" t="s" s="2">
+      <c r="B223" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C223" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D223" t="s" s="2">
+      <c r="C223" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D223" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E223" t="s" s="2">
+      <c r="E223" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F223" t="s" s="2">
+      <c r="F223" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G223" t="s" s="2">
+      <c r="G223" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H223" t="s" s="2">
+      <c r="H223" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6604,28 +6616,28 @@
       </c>
     </row>
     <row r="225">
-      <c r="B225" t="s" s="2">
+      <c r="B225" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C225" t="s" s="2">
+      <c r="C225" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D225" t="s" s="2">
+      <c r="D225" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E225" t="s" s="2">
+      <c r="E225" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F225" t="s" s="2">
+      <c r="F225" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G225" t="s" s="2">
+      <c r="G225" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H225" t="s" s="2">
+      <c r="H225" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I225" t="s" s="2">
+      <c r="I225" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6684,10 +6696,10 @@
       <c r="I227">
         <f>((C227-C226)^2+(D227- D226)^2)^.5</f>
       </c>
-      <c r="J227" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K227" s="2" t="s">
+      <c r="J227" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K227" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L227" t="n">
@@ -6731,28 +6743,28 @@
       </c>
     </row>
     <row r="229">
-      <c r="A229" t="s" s="2">
+      <c r="A229" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B229" t="s" s="2">
+      <c r="B229" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C229" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D229" t="s" s="2">
+      <c r="C229" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D229" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E229" t="s" s="2">
+      <c r="E229" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F229" t="s" s="2">
+      <c r="F229" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G229" t="s" s="2">
+      <c r="G229" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H229" t="s" s="2">
+      <c r="H229" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6777,28 +6789,28 @@
       </c>
     </row>
     <row r="231">
-      <c r="B231" t="s" s="2">
+      <c r="B231" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C231" t="s" s="2">
+      <c r="C231" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D231" t="s" s="2">
+      <c r="D231" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E231" t="s" s="2">
+      <c r="E231" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F231" t="s" s="2">
+      <c r="F231" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G231" t="s" s="2">
+      <c r="G231" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H231" t="s" s="2">
+      <c r="H231" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I231" t="s" s="2">
+      <c r="I231" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6857,10 +6869,10 @@
       <c r="I233">
         <f>((C233-C232)^2+(D233- D232)^2)^.5</f>
       </c>
-      <c r="J233" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K233" s="2" t="s">
+      <c r="J233" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K233" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L233" t="n">
@@ -6904,28 +6916,28 @@
       </c>
     </row>
     <row r="235">
-      <c r="A235" t="s" s="2">
+      <c r="A235" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B235" t="s" s="2">
+      <c r="B235" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C235" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D235" t="s" s="2">
+      <c r="C235" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D235" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E235" t="s" s="2">
+      <c r="E235" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F235" t="s" s="2">
+      <c r="F235" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G235" t="s" s="2">
+      <c r="G235" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H235" t="s" s="2">
+      <c r="H235" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6950,28 +6962,28 @@
       </c>
     </row>
     <row r="237">
-      <c r="B237" t="s" s="2">
+      <c r="B237" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C237" t="s" s="2">
+      <c r="C237" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D237" t="s" s="2">
+      <c r="D237" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E237" t="s" s="2">
+      <c r="E237" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F237" t="s" s="2">
+      <c r="F237" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G237" t="s" s="2">
+      <c r="G237" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H237" t="s" s="2">
+      <c r="H237" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I237" t="s" s="2">
+      <c r="I237" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7030,10 +7042,10 @@
       <c r="I239">
         <f>((C239-C238)^2+(D239- D238)^2)^.5</f>
       </c>
-      <c r="J239" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K239" s="2" t="s">
+      <c r="J239" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K239" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L239" t="n">
@@ -7077,28 +7089,28 @@
       </c>
     </row>
     <row r="241">
-      <c r="A241" t="s" s="2">
+      <c r="A241" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B241" t="s" s="2">
+      <c r="B241" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C241" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D241" t="s" s="2">
+      <c r="C241" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D241" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E241" t="s" s="2">
+      <c r="E241" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F241" t="s" s="2">
+      <c r="F241" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G241" t="s" s="2">
+      <c r="G241" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H241" t="s" s="2">
+      <c r="H241" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7123,28 +7135,28 @@
       </c>
     </row>
     <row r="243">
-      <c r="B243" t="s" s="2">
+      <c r="B243" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C243" t="s" s="2">
+      <c r="C243" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D243" t="s" s="2">
+      <c r="D243" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E243" t="s" s="2">
+      <c r="E243" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F243" t="s" s="2">
+      <c r="F243" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G243" t="s" s="2">
+      <c r="G243" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H243" t="s" s="2">
+      <c r="H243" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I243" t="s" s="2">
+      <c r="I243" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7203,10 +7215,10 @@
       <c r="I245">
         <f>((C245-C244)^2+(D245- D244)^2)^.5</f>
       </c>
-      <c r="J245" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K245" s="2" t="s">
+      <c r="J245" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K245" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L245" t="n">
@@ -7250,28 +7262,28 @@
       </c>
     </row>
     <row r="247">
-      <c r="A247" t="s" s="2">
+      <c r="A247" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B247" t="s" s="2">
+      <c r="B247" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C247" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D247" t="s" s="2">
+      <c r="C247" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D247" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E247" t="s" s="2">
+      <c r="E247" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F247" t="s" s="2">
+      <c r="F247" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G247" t="s" s="2">
+      <c r="G247" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H247" t="s" s="2">
+      <c r="H247" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7296,28 +7308,28 @@
       </c>
     </row>
     <row r="249">
-      <c r="B249" t="s" s="2">
+      <c r="B249" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C249" t="s" s="2">
+      <c r="C249" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D249" t="s" s="2">
+      <c r="D249" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E249" t="s" s="2">
+      <c r="E249" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F249" t="s" s="2">
+      <c r="F249" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G249" t="s" s="2">
+      <c r="G249" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H249" t="s" s="2">
+      <c r="H249" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I249" t="s" s="2">
+      <c r="I249" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7376,10 +7388,10 @@
       <c r="I251">
         <f>((C251-C250)^2+(D251- D250)^2)^.5</f>
       </c>
-      <c r="J251" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K251" s="2" t="s">
+      <c r="J251" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K251" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L251" t="n">
@@ -7423,28 +7435,28 @@
       </c>
     </row>
     <row r="253">
-      <c r="A253" t="s" s="2">
+      <c r="A253" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B253" t="s" s="2">
+      <c r="B253" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C253" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D253" t="s" s="2">
+      <c r="C253" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D253" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E253" t="s" s="2">
+      <c r="E253" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F253" t="s" s="2">
+      <c r="F253" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G253" t="s" s="2">
+      <c r="G253" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H253" t="s" s="2">
+      <c r="H253" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7469,28 +7481,28 @@
       </c>
     </row>
     <row r="255">
-      <c r="B255" t="s" s="2">
+      <c r="B255" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C255" t="s" s="2">
+      <c r="C255" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D255" t="s" s="2">
+      <c r="D255" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E255" t="s" s="2">
+      <c r="E255" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F255" t="s" s="2">
+      <c r="F255" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G255" t="s" s="2">
+      <c r="G255" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H255" t="s" s="2">
+      <c r="H255" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I255" t="s" s="2">
+      <c r="I255" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7549,10 +7561,10 @@
       <c r="I257">
         <f>((C257-C256)^2+(D257- D256)^2)^.5</f>
       </c>
-      <c r="J257" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K257" s="2" t="s">
+      <c r="J257" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K257" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L257" t="n">
@@ -7596,28 +7608,28 @@
       </c>
     </row>
     <row r="259">
-      <c r="A259" t="s" s="2">
+      <c r="A259" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B259" t="s" s="2">
+      <c r="B259" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C259" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D259" t="s" s="2">
+      <c r="C259" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D259" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E259" t="s" s="2">
+      <c r="E259" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F259" t="s" s="2">
+      <c r="F259" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G259" t="s" s="2">
+      <c r="G259" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H259" t="s" s="2">
+      <c r="H259" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7642,28 +7654,28 @@
       </c>
     </row>
     <row r="261">
-      <c r="B261" t="s" s="2">
+      <c r="B261" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C261" t="s" s="2">
+      <c r="C261" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D261" t="s" s="2">
+      <c r="D261" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E261" t="s" s="2">
+      <c r="E261" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F261" t="s" s="2">
+      <c r="F261" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G261" t="s" s="2">
+      <c r="G261" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H261" t="s" s="2">
+      <c r="H261" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I261" t="s" s="2">
+      <c r="I261" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7722,10 +7734,10 @@
       <c r="I263">
         <f>((C263-C262)^2+(D263- D262)^2)^.5</f>
       </c>
-      <c r="J263" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K263" s="2" t="s">
+      <c r="J263" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K263" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L263" t="n">
@@ -7769,28 +7781,28 @@
       </c>
     </row>
     <row r="265">
-      <c r="A265" t="s" s="2">
+      <c r="A265" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B265" t="s" s="2">
+      <c r="B265" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C265" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D265" t="s" s="2">
+      <c r="C265" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D265" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E265" t="s" s="2">
+      <c r="E265" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F265" t="s" s="2">
+      <c r="F265" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G265" t="s" s="2">
+      <c r="G265" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H265" t="s" s="2">
+      <c r="H265" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7815,28 +7827,28 @@
       </c>
     </row>
     <row r="267">
-      <c r="B267" t="s" s="2">
+      <c r="B267" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C267" t="s" s="2">
+      <c r="C267" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D267" t="s" s="2">
+      <c r="D267" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E267" t="s" s="2">
+      <c r="E267" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F267" t="s" s="2">
+      <c r="F267" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G267" t="s" s="2">
+      <c r="G267" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H267" t="s" s="2">
+      <c r="H267" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I267" t="s" s="2">
+      <c r="I267" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7895,10 +7907,10 @@
       <c r="I269">
         <f>((C269-C268)^2+(D269- D268)^2)^.5</f>
       </c>
-      <c r="J269" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K269" s="2" t="s">
+      <c r="J269" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K269" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L269" t="n">
@@ -7942,28 +7954,28 @@
       </c>
     </row>
     <row r="271">
-      <c r="A271" t="s" s="2">
+      <c r="A271" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B271" t="s" s="2">
+      <c r="B271" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C271" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D271" t="s" s="2">
+      <c r="C271" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D271" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E271" t="s" s="2">
+      <c r="E271" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F271" t="s" s="2">
+      <c r="F271" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G271" t="s" s="2">
+      <c r="G271" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H271" t="s" s="2">
+      <c r="H271" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7988,28 +8000,28 @@
       </c>
     </row>
     <row r="273">
-      <c r="B273" t="s" s="2">
+      <c r="B273" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C273" t="s" s="2">
+      <c r="C273" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D273" t="s" s="2">
+      <c r="D273" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E273" t="s" s="2">
+      <c r="E273" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F273" t="s" s="2">
+      <c r="F273" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G273" t="s" s="2">
+      <c r="G273" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H273" t="s" s="2">
+      <c r="H273" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I273" t="s" s="2">
+      <c r="I273" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8068,10 +8080,10 @@
       <c r="I275">
         <f>((C275-C274)^2+(D275- D274)^2)^.5</f>
       </c>
-      <c r="J275" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K275" s="2" t="s">
+      <c r="J275" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K275" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L275" t="n">
@@ -8115,28 +8127,28 @@
       </c>
     </row>
     <row r="277">
-      <c r="A277" t="s" s="2">
+      <c r="A277" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B277" t="s" s="2">
+      <c r="B277" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C277" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D277" t="s" s="2">
+      <c r="C277" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D277" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E277" t="s" s="2">
+      <c r="E277" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F277" t="s" s="2">
+      <c r="F277" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G277" t="s" s="2">
+      <c r="G277" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H277" t="s" s="2">
+      <c r="H277" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8161,28 +8173,28 @@
       </c>
     </row>
     <row r="279">
-      <c r="B279" t="s" s="2">
+      <c r="B279" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C279" t="s" s="2">
+      <c r="C279" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D279" t="s" s="2">
+      <c r="D279" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E279" t="s" s="2">
+      <c r="E279" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F279" t="s" s="2">
+      <c r="F279" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G279" t="s" s="2">
+      <c r="G279" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H279" t="s" s="2">
+      <c r="H279" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I279" t="s" s="2">
+      <c r="I279" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8241,10 +8253,10 @@
       <c r="I281">
         <f>((C281-C280)^2+(D281- D280)^2)^.5</f>
       </c>
-      <c r="J281" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K281" s="2" t="s">
+      <c r="J281" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K281" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L281" t="n">
@@ -8288,28 +8300,28 @@
       </c>
     </row>
     <row r="283">
-      <c r="A283" t="s" s="2">
+      <c r="A283" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B283" t="s" s="2">
+      <c r="B283" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C283" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D283" t="s" s="2">
+      <c r="C283" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D283" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E283" t="s" s="2">
+      <c r="E283" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F283" t="s" s="2">
+      <c r="F283" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G283" t="s" s="2">
+      <c r="G283" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H283" t="s" s="2">
+      <c r="H283" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8334,28 +8346,28 @@
       </c>
     </row>
     <row r="285">
-      <c r="B285" t="s" s="2">
+      <c r="B285" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C285" t="s" s="2">
+      <c r="C285" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D285" t="s" s="2">
+      <c r="D285" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E285" t="s" s="2">
+      <c r="E285" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F285" t="s" s="2">
+      <c r="F285" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G285" t="s" s="2">
+      <c r="G285" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H285" t="s" s="2">
+      <c r="H285" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I285" t="s" s="2">
+      <c r="I285" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8414,10 +8426,10 @@
       <c r="I287">
         <f>((C287-C286)^2+(D287- D286)^2)^.5</f>
       </c>
-      <c r="J287" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K287" s="2" t="s">
+      <c r="J287" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K287" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L287" t="n">
@@ -8461,28 +8473,28 @@
       </c>
     </row>
     <row r="289">
-      <c r="A289" t="s" s="2">
+      <c r="A289" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B289" t="s" s="2">
+      <c r="B289" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C289" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D289" t="s" s="2">
+      <c r="C289" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D289" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E289" t="s" s="2">
+      <c r="E289" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F289" t="s" s="2">
+      <c r="F289" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G289" t="s" s="2">
+      <c r="G289" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H289" t="s" s="2">
+      <c r="H289" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8507,28 +8519,28 @@
       </c>
     </row>
     <row r="291">
-      <c r="B291" t="s" s="2">
+      <c r="B291" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C291" t="s" s="2">
+      <c r="C291" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D291" t="s" s="2">
+      <c r="D291" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E291" t="s" s="2">
+      <c r="E291" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F291" t="s" s="2">
+      <c r="F291" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G291" t="s" s="2">
+      <c r="G291" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H291" t="s" s="2">
+      <c r="H291" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I291" t="s" s="2">
+      <c r="I291" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8587,10 +8599,10 @@
       <c r="I293">
         <f>((C293-C292)^2+(D293- D292)^2)^.5</f>
       </c>
-      <c r="J293" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K293" s="2" t="s">
+      <c r="J293" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K293" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L293" t="n">
@@ -8634,28 +8646,28 @@
       </c>
     </row>
     <row r="295">
-      <c r="A295" t="s" s="2">
+      <c r="A295" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B295" t="s" s="2">
+      <c r="B295" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C295" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D295" t="s" s="2">
+      <c r="C295" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D295" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E295" t="s" s="2">
+      <c r="E295" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F295" t="s" s="2">
+      <c r="F295" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G295" t="s" s="2">
+      <c r="G295" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H295" t="s" s="2">
+      <c r="H295" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8680,28 +8692,28 @@
       </c>
     </row>
     <row r="297">
-      <c r="B297" t="s" s="2">
+      <c r="B297" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C297" t="s" s="2">
+      <c r="C297" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D297" t="s" s="2">
+      <c r="D297" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E297" t="s" s="2">
+      <c r="E297" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F297" t="s" s="2">
+      <c r="F297" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G297" t="s" s="2">
+      <c r="G297" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H297" t="s" s="2">
+      <c r="H297" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I297" t="s" s="2">
+      <c r="I297" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8760,10 +8772,10 @@
       <c r="I299">
         <f>((C299-C298)^2+(D299- D298)^2)^.5</f>
       </c>
-      <c r="J299" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K299" s="2" t="s">
+      <c r="J299" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K299" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L299" t="n">
@@ -8807,28 +8819,28 @@
       </c>
     </row>
     <row r="301">
-      <c r="A301" t="s" s="2">
+      <c r="A301" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B301" t="s" s="2">
+      <c r="B301" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C301" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D301" t="s" s="2">
+      <c r="C301" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D301" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E301" t="s" s="2">
+      <c r="E301" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F301" t="s" s="2">
+      <c r="F301" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G301" t="s" s="2">
+      <c r="G301" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H301" t="s" s="2">
+      <c r="H301" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8853,28 +8865,28 @@
       </c>
     </row>
     <row r="303">
-      <c r="B303" t="s" s="2">
+      <c r="B303" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C303" t="s" s="2">
+      <c r="C303" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D303" t="s" s="2">
+      <c r="D303" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E303" t="s" s="2">
+      <c r="E303" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F303" t="s" s="2">
+      <c r="F303" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G303" t="s" s="2">
+      <c r="G303" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H303" t="s" s="2">
+      <c r="H303" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I303" t="s" s="2">
+      <c r="I303" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8933,10 +8945,10 @@
       <c r="I305">
         <f>((C305-C304)^2+(D305- D304)^2)^.5</f>
       </c>
-      <c r="J305" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K305" s="2" t="s">
+      <c r="J305" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K305" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L305" t="n">
@@ -8980,28 +8992,28 @@
       </c>
     </row>
     <row r="307">
-      <c r="A307" t="s" s="2">
+      <c r="A307" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B307" t="s" s="2">
+      <c r="B307" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C307" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D307" t="s" s="2">
+      <c r="C307" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D307" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E307" t="s" s="2">
+      <c r="E307" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F307" t="s" s="2">
+      <c r="F307" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G307" t="s" s="2">
+      <c r="G307" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H307" t="s" s="2">
+      <c r="H307" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9026,28 +9038,28 @@
       </c>
     </row>
     <row r="309">
-      <c r="B309" t="s" s="2">
+      <c r="B309" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C309" t="s" s="2">
+      <c r="C309" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D309" t="s" s="2">
+      <c r="D309" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E309" t="s" s="2">
+      <c r="E309" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F309" t="s" s="2">
+      <c r="F309" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G309" t="s" s="2">
+      <c r="G309" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H309" t="s" s="2">
+      <c r="H309" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I309" t="s" s="2">
+      <c r="I309" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9106,10 +9118,10 @@
       <c r="I311">
         <f>((C311-C310)^2+(D311- D310)^2)^.5</f>
       </c>
-      <c r="J311" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K311" s="2" t="s">
+      <c r="J311" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K311" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L311" t="n">
@@ -9153,28 +9165,28 @@
       </c>
     </row>
     <row r="313">
-      <c r="A313" t="s" s="2">
+      <c r="A313" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B313" t="s" s="2">
+      <c r="B313" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C313" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D313" t="s" s="2">
+      <c r="C313" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D313" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E313" t="s" s="2">
+      <c r="E313" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F313" t="s" s="2">
+      <c r="F313" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G313" t="s" s="2">
+      <c r="G313" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H313" t="s" s="2">
+      <c r="H313" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9199,28 +9211,28 @@
       </c>
     </row>
     <row r="315">
-      <c r="B315" t="s" s="2">
+      <c r="B315" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C315" t="s" s="2">
+      <c r="C315" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D315" t="s" s="2">
+      <c r="D315" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E315" t="s" s="2">
+      <c r="E315" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F315" t="s" s="2">
+      <c r="F315" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G315" t="s" s="2">
+      <c r="G315" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H315" t="s" s="2">
+      <c r="H315" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I315" t="s" s="2">
+      <c r="I315" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9279,10 +9291,10 @@
       <c r="I317">
         <f>((C317-C316)^2+(D317- D316)^2)^.5</f>
       </c>
-      <c r="J317" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K317" s="2" t="s">
+      <c r="J317" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K317" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L317" t="n">
@@ -9326,28 +9338,28 @@
       </c>
     </row>
     <row r="319">
-      <c r="A319" t="s" s="2">
+      <c r="A319" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B319" t="s" s="2">
+      <c r="B319" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C319" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D319" t="s" s="2">
+      <c r="C319" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D319" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E319" t="s" s="2">
+      <c r="E319" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F319" t="s" s="2">
+      <c r="F319" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G319" t="s" s="2">
+      <c r="G319" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H319" t="s" s="2">
+      <c r="H319" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9372,28 +9384,28 @@
       </c>
     </row>
     <row r="321">
-      <c r="B321" t="s" s="2">
+      <c r="B321" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C321" t="s" s="2">
+      <c r="C321" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D321" t="s" s="2">
+      <c r="D321" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E321" t="s" s="2">
+      <c r="E321" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F321" t="s" s="2">
+      <c r="F321" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G321" t="s" s="2">
+      <c r="G321" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H321" t="s" s="2">
+      <c r="H321" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I321" t="s" s="2">
+      <c r="I321" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9452,10 +9464,10 @@
       <c r="I323">
         <f>((C323-C322)^2+(D323- D322)^2)^.5</f>
       </c>
-      <c r="J323" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K323" s="2" t="s">
+      <c r="J323" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K323" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L323" t="n">
@@ -9499,28 +9511,28 @@
       </c>
     </row>
     <row r="325">
-      <c r="A325" t="s" s="2">
+      <c r="A325" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B325" t="s" s="2">
+      <c r="B325" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C325" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D325" t="s" s="2">
+      <c r="C325" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D325" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E325" t="s" s="2">
+      <c r="E325" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F325" t="s" s="2">
+      <c r="F325" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G325" t="s" s="2">
+      <c r="G325" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H325" t="s" s="2">
+      <c r="H325" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9545,28 +9557,28 @@
       </c>
     </row>
     <row r="327">
-      <c r="B327" t="s" s="2">
+      <c r="B327" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C327" t="s" s="2">
+      <c r="C327" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D327" t="s" s="2">
+      <c r="D327" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E327" t="s" s="2">
+      <c r="E327" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F327" t="s" s="2">
+      <c r="F327" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G327" t="s" s="2">
+      <c r="G327" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H327" t="s" s="2">
+      <c r="H327" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I327" t="s" s="2">
+      <c r="I327" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9625,10 +9637,10 @@
       <c r="I329">
         <f>((C329-C328)^2+(D329- D328)^2)^.5</f>
       </c>
-      <c r="J329" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K329" s="2" t="s">
+      <c r="J329" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K329" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L329" t="n">
@@ -9672,28 +9684,28 @@
       </c>
     </row>
     <row r="331">
-      <c r="A331" t="s" s="2">
+      <c r="A331" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B331" t="s" s="2">
+      <c r="B331" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C331" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D331" t="s" s="2">
+      <c r="C331" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D331" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E331" t="s" s="2">
+      <c r="E331" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F331" t="s" s="2">
+      <c r="F331" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G331" t="s" s="2">
+      <c r="G331" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H331" t="s" s="2">
+      <c r="H331" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9718,28 +9730,28 @@
       </c>
     </row>
     <row r="333">
-      <c r="B333" t="s" s="2">
+      <c r="B333" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C333" t="s" s="2">
+      <c r="C333" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D333" t="s" s="2">
+      <c r="D333" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E333" t="s" s="2">
+      <c r="E333" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F333" t="s" s="2">
+      <c r="F333" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G333" t="s" s="2">
+      <c r="G333" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H333" t="s" s="2">
+      <c r="H333" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I333" t="s" s="2">
+      <c r="I333" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9798,10 +9810,10 @@
       <c r="I335">
         <f>((C335-C334)^2+(D335- D334)^2)^.5</f>
       </c>
-      <c r="J335" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K335" s="2" t="s">
+      <c r="J335" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K335" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L335" t="n">
@@ -9845,28 +9857,28 @@
       </c>
     </row>
     <row r="337">
-      <c r="A337" t="s" s="2">
+      <c r="A337" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B337" t="s" s="2">
+      <c r="B337" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C337" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D337" t="s" s="2">
+      <c r="C337" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D337" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E337" t="s" s="2">
+      <c r="E337" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F337" t="s" s="2">
+      <c r="F337" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G337" t="s" s="2">
+      <c r="G337" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H337" t="s" s="2">
+      <c r="H337" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9891,28 +9903,28 @@
       </c>
     </row>
     <row r="339">
-      <c r="B339" t="s" s="2">
+      <c r="B339" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C339" t="s" s="2">
+      <c r="C339" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D339" t="s" s="2">
+      <c r="D339" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E339" t="s" s="2">
+      <c r="E339" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F339" t="s" s="2">
+      <c r="F339" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G339" t="s" s="2">
+      <c r="G339" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H339" t="s" s="2">
+      <c r="H339" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I339" t="s" s="2">
+      <c r="I339" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9971,10 +9983,10 @@
       <c r="I341">
         <f>((C341-C340)^2+(D341- D340)^2)^.5</f>
       </c>
-      <c r="J341" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K341" s="2" t="s">
+      <c r="J341" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K341" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L341" t="n">
